--- a/testCases.xlsx
+++ b/testCases.xlsx
@@ -635,15 +635,15 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.86"/>
-    <col customWidth="1" min="2" max="2" width="19.14"/>
-    <col customWidth="1" min="3" max="3" width="26.57"/>
-    <col customWidth="1" min="4" max="4" width="13.71"/>
-    <col customWidth="1" min="5" max="5" width="34.57"/>
-    <col customWidth="1" min="6" max="6" width="15.29"/>
+    <col customWidth="1" min="1" max="1" width="23.29"/>
+    <col customWidth="1" min="2" max="2" width="27.29"/>
+    <col customWidth="1" min="3" max="3" width="41.71"/>
+    <col customWidth="1" min="4" max="4" width="26.57"/>
+    <col customWidth="1" min="5" max="5" width="40.43"/>
+    <col customWidth="1" min="6" max="6" width="36.71"/>
     <col customWidth="1" min="7" max="7" width="17.14"/>
     <col customWidth="1" min="8" max="8" width="9.29"/>
-    <col customWidth="1" min="9" max="9" width="16.0"/>
+    <col customWidth="1" min="9" max="9" width="25.29"/>
     <col customWidth="1" min="10" max="12" width="8.71"/>
     <col customWidth="1" min="13" max="13" width="11.86"/>
     <col customWidth="1" min="14" max="25" width="8.71"/>
